--- a/data/FB15k/implication_stats_train.xlsx
+++ b/data/FB15k/implication_stats_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/FB15k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A2223F-B456-484A-A101-111161EDBDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A4C2A-B344-8D47-A1D9-7D55F09F0D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27280" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="957">
   <si>
     <t>/sports/sports_team/roster./sports/sports_team_roster/position</t>
   </si>
@@ -2887,7 +2887,10 @@
     <t>/base/argumentmaps/innovator/original_ideas</t>
   </si>
   <si>
-    <t>Number of occurances per implication relation in the train set</t>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of occurances per implication relation in the train set</c:v>
+                  <c:v>count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9877,7 +9880,7 @@
   <dimension ref="A1:B956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9887,11 +9890,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>955</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
